--- a/biology/Zoologie/Hirola/Hirola.xlsx
+++ b/biology/Zoologie/Hirola/Hirola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beatragus hunteri
 L'Hirola (Beatragus hunteri ou Damaliscus hunteri) ou Damalisque de Hunter est un bovidé proche des antilopes appartenant à la tribu des Alcelaphini. Cet animal en danger critique d'extinction subsiste dans des plaines herbeuses arides situées à la frontière du Kenya et de la Somalie. Il fait partie de la liste des 100 espèces les plus menacées au monde établie par l'UICN en 2012.
@@ -514,11 +526,13 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hirola est en danger critique d'extinction. On compte entre 500 et 1 200 individus sauvages et une seule femelle en captivité. Les relevés des années 1970 donnaient environ 14 000 bêtes alors que dans les années 1980 on n'en dénombrait plus que 7 000. Ce rapide déclin est attribué à la compétition du bétail ainsi qu'à la sécheresse dont souffre la région.
 À la fin de 2005, quatre communautés territoriales du district de l'Ijara ont établi avec l'association italienne Terra Nuova une proposition de programme de conservation de l'hirola sur place (Ishaqbini Hirola Conservancy).
-L'Union internationale pour la conservation de la nature a classé en 2007 l'hirola comme faisant partie des 10 espèces prioritaires[1] puis l'a inclus dans la liste des 100 espèces les plus menacées au monde en 2012.
+L'Union internationale pour la conservation de la nature a classé en 2007 l'hirola comme faisant partie des 10 espèces prioritaires puis l'a inclus dans la liste des 100 espèces les plus menacées au monde en 2012.
 </t>
         </is>
       </c>
